--- a/Materiales/TALLER LEAN SIX SIGMA.xlsx
+++ b/Materiales/TALLER LEAN SIX SIGMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive - UNIVERSIDAD NACIONAL DE INGENIERIA\Desktop\UNI\9vo ciclo\SISTEMAS ANALITICOS\PC10\Materiales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\9NO CICLO\SISTEMAS ANALITICOS\PC4\lean six sigma\PC10-SixSigma-SA\Materiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B02AB5-4F9B-43B7-B691-4AD9E86B0356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB917F2A-A64E-4611-9F71-B0D1F2E0DA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia" sheetId="1" r:id="rId1"/>
@@ -43,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="493">
   <si>
     <t>D</t>
   </si>
@@ -214,9 +236,6 @@
     <t>Prueba de hipótesis</t>
   </si>
   <si>
-    <t>Prueba de normalidad, etc</t>
-  </si>
-  <si>
     <t>Prueba de Chi-quadrado</t>
   </si>
   <si>
@@ -1523,6 +1542,9 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>Prueba de normalidad</t>
   </si>
 </sst>
 </file>
@@ -2027,6 +2049,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2201,7 +2224,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda 2" xfId="1" xr:uid="{458E4321-591B-479C-97E7-EEA8E22401B0}"/>
@@ -2782,6 +2804,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2789,7 +2812,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3369,6 +3391,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3376,7 +3399,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -17584,9 +17606,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -17624,7 +17646,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -17730,7 +17752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17872,7 +17894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17882,20 +17904,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:E48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
@@ -17903,12 +17925,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>1</v>
@@ -17917,7 +17939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -17928,10 +17950,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -17939,13 +17961,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -17959,7 +17981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -17967,90 +17989,90 @@
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -18061,36 +18083,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:I41"/>
+  <dimension ref="A4:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="49.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="49.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="64" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
@@ -18113,7 +18135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -18130,11 +18152,15 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J6" s="1" t="str" cm="1">
+        <f t="array" ref="J6">+_xlfn.IFS(C6&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -18149,11 +18175,15 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J7" s="1" t="str" cm="1">
+        <f t="array" ref="J7">+_xlfn.IFS(C7&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -18168,13 +18198,17 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J8" s="1" t="str" cm="1">
+        <f t="array" ref="J8">+_xlfn.IFS(C8&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -18191,11 +18225,15 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J9" s="1" t="e" cm="1">
+        <f t="array" ref="J9">+_xlfn.IFS(C9&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -18210,11 +18248,15 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J10" s="1" t="str" cm="1">
+        <f t="array" ref="J10">+_xlfn.IFS(C10&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -18231,13 +18273,17 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J11" s="1" t="str" cm="1">
+        <f t="array" ref="J11">+_xlfn.IFS(C11&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -18256,11 +18302,15 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J12" s="1" t="e" cm="1">
+        <f t="array" ref="J12">+_xlfn.IFS(C12&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -18279,18 +18329,22 @@
         <v>25</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J13" s="1" t="str" cm="1">
+        <f t="array" ref="J13">+_xlfn.IFS(C13&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -18300,13 +18354,17 @@
         <v>25</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J14" s="1" t="str" cm="1">
+        <f t="array" ref="J14">+_xlfn.IFS(C14&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -18329,11 +18387,15 @@
         <v>25</v>
       </c>
       <c r="H15" s="16"/>
-      <c r="I15" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I15" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J15" s="1" t="e" cm="1">
+        <f t="array" ref="J15">+_xlfn.IFS(C15&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -18352,11 +18414,15 @@
         <v>25</v>
       </c>
       <c r="H16" s="16"/>
-      <c r="I16" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I16" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J16" s="1" t="e" cm="1">
+        <f t="array" ref="J16">+_xlfn.IFS(C16&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -18373,13 +18439,17 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" s="1" t="e" cm="1">
+        <f t="array" ref="J17">+_xlfn.IFS(C17&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -18394,13 +18464,17 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J18" s="1" t="str" cm="1">
+        <f t="array" ref="J18">+_xlfn.IFS(C18&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -18415,13 +18489,17 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J19" s="1" t="str" cm="1">
+        <f t="array" ref="J19">+_xlfn.IFS(C19&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -18438,13 +18516,17 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J20" s="1" t="str" cm="1">
+        <f t="array" ref="J20">+_xlfn.IFS(C20&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -18461,11 +18543,15 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J21" s="1" t="str" cm="1">
+        <f t="array" ref="J21">+_xlfn.IFS(C21&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -18480,11 +18566,15 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I22" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J22" s="1" t="str" cm="1">
+        <f t="array" ref="J22">+_xlfn.IFS(C22&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -18501,11 +18591,15 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J23" s="1" t="str" cm="1">
+        <f t="array" ref="J23">+_xlfn.IFS(C23&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -18522,8 +18616,15 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J24" s="1" t="str" cm="1">
+        <f t="array" ref="J24">+_xlfn.IFS(C24&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -18538,10 +18639,17 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J25" s="1" t="str" cm="1">
+        <f t="array" ref="J25">+_xlfn.IFS(C25&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -18558,8 +18666,15 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J26" s="1" t="str" cm="1">
+        <f t="array" ref="J26">+_xlfn.IFS(C26&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -18576,8 +18691,15 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J27" s="1" t="str" cm="1">
+        <f t="array" ref="J27">+_xlfn.IFS(C27&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -18598,10 +18720,17 @@
         <v>25</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J28" s="1" t="str" cm="1">
+        <f t="array" ref="J28">+_xlfn.IFS(C28&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -18618,8 +18747,15 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J29" s="1" t="e" cm="1">
+        <f t="array" ref="J29">+_xlfn.IFS(C29&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -18634,8 +18770,15 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J30" s="1" t="str" cm="1">
+        <f t="array" ref="J30">+_xlfn.IFS(C30&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -18652,8 +18795,15 @@
         <v>25</v>
       </c>
       <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J31" s="1" t="e" cm="1">
+        <f t="array" ref="J31">+_xlfn.IFS(C31&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -18672,8 +18822,15 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J32" s="1" t="str" cm="1">
+        <f t="array" ref="J32">+_xlfn.IFS(C32&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -18688,10 +18845,17 @@
         <v>25</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J33" s="1" t="str" cm="1">
+        <f t="array" ref="J33">+_xlfn.IFS(C33&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -18706,8 +18870,15 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J34" s="1" t="e" cm="1">
+        <f t="array" ref="J34">+_xlfn.IFS(C34&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -18724,8 +18895,15 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J35" s="1" t="str" cm="1">
+        <f t="array" ref="J35">+_xlfn.IFS(C35&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -18740,10 +18918,17 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="I36" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J36" s="1" t="str" cm="1">
+        <f t="array" ref="J36">+_xlfn.IFS(C36&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -18758,15 +18943,22 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I37" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J37" s="1" t="str" cm="1">
+        <f t="array" ref="J37">+_xlfn.IFS(C37&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>33</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="17" t="s">
@@ -18776,15 +18968,22 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I38" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J38" s="1" t="str" cm="1">
+        <f t="array" ref="J38">+_xlfn.IFS(C38&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>34</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -18794,15 +18993,22 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="I39" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J39" s="1" t="str" cm="1">
+        <f t="array" ref="J39">+_xlfn.IFS(C39&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>35</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -18812,15 +19018,19 @@
         <v>25</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="J40" s="1" t="str" cm="1">
+        <f t="array" ref="J40">+_xlfn.IFS(C40&lt;&gt;"X","D")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>36</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>25</v>
@@ -18832,7 +19042,11 @@
         <v>25</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="J41" s="1" t="e" cm="1">
+        <f t="array" ref="J41">+_xlfn.IFS(C41&lt;&gt;"X","D")</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -18850,495 +19064,495 @@
   <dimension ref="A7:D78"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="65.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="12.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="65.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>109</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
+        <v>108</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="66"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="22" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="22" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="66"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="22" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="C15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="C21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="22" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="B22" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="D22" s="23" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="21"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="21"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="B35" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="19" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="19" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="19" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>20</v>
       </c>
@@ -19360,12 +19574,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19377,177 +19591,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A5:AX31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
     <col min="3" max="50" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="11.42578125" style="1"/>
+    <col min="51" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE5" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="71" t="s">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68" t="s">
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68" t="s">
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68" t="s">
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68" t="s">
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68" t="s">
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68" t="s">
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68" t="s">
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68" t="s">
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68" t="s">
+      <c r="AN20" s="69"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68" t="s">
+      <c r="AR20" s="69"/>
+      <c r="AS20" s="69"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="30">
         <v>1</v>
       </c>
@@ -19693,12 +19907,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>168</v>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A22" s="68" t="s">
+        <v>167</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -19749,10 +19963,10 @@
       <c r="AW22" s="16"/>
       <c r="AX22" s="16"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A23" s="68"/>
       <c r="B23" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -19803,12 +20017,12 @@
       <c r="AW23" s="31"/>
       <c r="AX23" s="31"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
-        <v>169</v>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A24" s="68" t="s">
+        <v>168</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -19859,10 +20073,10 @@
       <c r="AW24" s="16"/>
       <c r="AX24" s="16"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A25" s="68"/>
       <c r="B25" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -19913,12 +20127,12 @@
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
-        <v>170</v>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A26" s="68" t="s">
+        <v>169</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -19969,10 +20183,10 @@
       <c r="AW26" s="16"/>
       <c r="AX26" s="16"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A27" s="68"/>
       <c r="B27" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
@@ -20023,12 +20237,12 @@
       <c r="AW27" s="31"/>
       <c r="AX27" s="31"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
-        <v>171</v>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A28" s="68" t="s">
+        <v>170</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -20079,10 +20293,10 @@
       <c r="AW28" s="16"/>
       <c r="AX28" s="16"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A29" s="68"/>
       <c r="B29" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
@@ -20133,12 +20347,12 @@
       <c r="AW29" s="31"/>
       <c r="AX29" s="31"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A30" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -20189,10 +20403,10 @@
       <c r="AW30" s="16"/>
       <c r="AX30" s="16"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A31" s="68"/>
       <c r="B31" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -20273,406 +20487,406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A5:N164"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="B74" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="E124" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E129" s="1" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="15" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
+      <c r="B131" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L133" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L133" s="7" t="s">
+      <c r="M133" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="M133" s="15" t="s">
+      <c r="N133" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="N133" s="15" t="s">
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="L134" s="32">
         <v>44032</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N134" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L135" s="32">
         <v>44042</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N135" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L136" s="32">
         <v>43996</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N136" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L137" s="32">
         <v>44002</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N137" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L138" s="32">
         <v>43998</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N138" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L139" s="32">
         <v>44004</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N139" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L143" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M143" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="L141" s="2"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L142" s="2"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="L143" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M143" s="15" t="s">
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L144" s="33" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="M144" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L144" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="M144" s="1" t="s">
+      <c r="E145" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L145" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="M145" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L145" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="M145" s="1" t="s">
+      <c r="L146" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="M146" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L146" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="M146" s="1" t="s">
+      <c r="L147" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L148" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="M148" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L147" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L148" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="M148" s="1" t="s">
+      <c r="L149" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="M149" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L149" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="M149" s="1" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -20685,121 +20899,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F80F8D2-B1C8-455D-8944-F0BC66F529DB}">
   <dimension ref="A5:J74"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K8" sqref="I7:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="9" width="11.44140625" style="1"/>
+    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="G19" s="1">
         <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="D20" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="E20" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="F20" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="G20" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="H20" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="I20" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="J20" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="B21" s="34">
         <v>138.25</v>
@@ -20830,9 +21044,9 @@
         <v>17714.64</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" s="34">
         <v>120.45</v>
@@ -20863,9 +21077,9 @@
         <v>13471.679999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" s="34">
         <v>245.6</v>
@@ -20896,9 +21110,9 @@
         <v>22748.159999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="34">
         <v>265.56</v>
@@ -20929,9 +21143,9 @@
         <v>22637.159999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="34">
         <v>214.6</v>
@@ -20962,9 +21176,9 @@
         <v>22414.080000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" s="34">
         <v>189.45</v>
@@ -20995,9 +21209,9 @@
         <v>21816.239999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" s="34">
         <v>246.7</v>
@@ -21028,9 +21242,9 @@
         <v>23487.599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" s="34">
         <v>165.48</v>
@@ -21061,9 +21275,9 @@
         <v>18222</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="34">
         <v>178.46</v>
@@ -21094,9 +21308,9 @@
         <v>20901.840000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="34">
         <v>210.65</v>
@@ -21127,9 +21341,9 @@
         <v>21613.680000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" s="34">
         <v>216.98</v>
@@ -21160,9 +21374,9 @@
         <v>19992.120000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="34">
         <v>313.39999999999998</v>
@@ -21193,9 +21407,9 @@
         <v>20607.72</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="34">
         <v>283.39999999999998</v>
@@ -21226,9 +21440,9 @@
         <v>21460.68</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" s="34">
         <v>165.4</v>
@@ -21259,9 +21473,9 @@
         <v>20116.560000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="34">
         <v>198.4</v>
@@ -21292,9 +21506,9 @@
         <v>22494.48</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="34">
         <v>264.8</v>
@@ -21325,9 +21539,9 @@
         <v>21760.44</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="34">
         <v>266.8</v>
@@ -21358,9 +21572,9 @@
         <v>22303.800000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="34">
         <v>304.89999999999998</v>
@@ -21391,9 +21605,9 @@
         <v>18973.080000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B39" s="34">
         <v>165.1</v>
@@ -21424,9 +21638,9 @@
         <v>19899.36</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B40" s="34">
         <v>285.39999999999998</v>
@@ -21457,57 +21671,57 @@
         <v>24274.68</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J41" s="63">
         <f>SUM(J21:J40)</f>
         <v>416909.99999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J42" s="63">
         <f>AVERAGE(J21:J40)/15</f>
         <v>1389.6999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -21525,294 +21739,294 @@
   </sheetPr>
   <dimension ref="A5:AX371"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A320" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="1"/>
-    <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
     </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A16" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="AE18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK18" s="1">
         <v>1528</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK19" s="38">
         <v>44047</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="39">
         <f>+K74</f>
         <v>2605.6874999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="40">
         <f>0.5*C25</f>
         <v>1302.8437499999998</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="39">
         <f>1302*360</f>
         <v>468720</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="39">
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="40">
         <f>+C28-C29</f>
         <v>408720</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="F32" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="F32" s="41" t="s">
-        <v>328</v>
-      </c>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="71" t="s">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A33" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="70"/>
+      <c r="C33" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68" t="s">
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68" t="s">
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68" t="s">
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68" t="s">
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68" t="s">
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68" t="s">
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68" t="s">
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68" t="s">
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="69"/>
+      <c r="AL33" s="69"/>
+      <c r="AM33" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="AJ33" s="68"/>
-      <c r="AK33" s="68"/>
-      <c r="AL33" s="68"/>
-      <c r="AM33" s="68" t="s">
+      <c r="AN33" s="69"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="69"/>
+      <c r="AQ33" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="AN33" s="68"/>
-      <c r="AO33" s="68"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68" t="s">
+      <c r="AR33" s="69"/>
+      <c r="AS33" s="69"/>
+      <c r="AT33" s="69"/>
+      <c r="AU33" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="68"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
+      <c r="AV33" s="69"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="69"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="30">
         <v>1</v>
       </c>
@@ -21958,12 +22172,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
-        <v>168</v>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A35" s="68" t="s">
+        <v>167</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>25</v>
@@ -22022,10 +22236,10 @@
       <c r="AW35" s="16"/>
       <c r="AX35" s="16"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A36" s="68"/>
       <c r="B36" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
@@ -22076,12 +22290,12 @@
       <c r="AW36" s="31"/>
       <c r="AX36" s="31"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
-        <v>169</v>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A37" s="68" t="s">
+        <v>168</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -22140,10 +22354,10 @@
       <c r="AW37" s="16"/>
       <c r="AX37" s="16"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A38" s="68"/>
       <c r="B38" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
@@ -22194,12 +22408,12 @@
       <c r="AW38" s="31"/>
       <c r="AX38" s="31"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
-        <v>170</v>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A39" s="68" t="s">
+        <v>169</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -22258,10 +22472,10 @@
       <c r="AW39" s="16"/>
       <c r="AX39" s="16"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A40" s="68"/>
       <c r="B40" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
@@ -22312,12 +22526,12 @@
       <c r="AW40" s="31"/>
       <c r="AX40" s="31"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
-        <v>171</v>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A41" s="68" t="s">
+        <v>170</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -22376,10 +22590,10 @@
       <c r="AW41" s="16"/>
       <c r="AX41" s="16"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A42" s="68"/>
       <c r="B42" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
@@ -22430,12 +22644,12 @@
       <c r="AW42" s="31"/>
       <c r="AX42" s="31"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A43" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -22550,10 +22764,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A44" s="68"/>
       <c r="B44" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
@@ -22604,102 +22818,102 @@
       <c r="AW44" s="31"/>
       <c r="AX44" s="31"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="J50" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="G51" s="1">
         <v>12</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="M51" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="M51" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="P51" s="65"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="P51" s="64"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="I52" s="29" t="s">
+      <c r="K52" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="O52" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="P52" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="B53" s="34">
         <v>138.25</v>
@@ -22754,9 +22968,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B54" s="34">
         <v>120.45</v>
@@ -22811,9 +23025,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B55" s="34">
         <v>245.6</v>
@@ -22868,9 +23082,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B56" s="34">
         <v>265.56</v>
@@ -22925,9 +23139,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B57" s="34">
         <v>214.6</v>
@@ -22982,9 +23196,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B58" s="34">
         <v>189.45</v>
@@ -23039,9 +23253,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B59" s="34">
         <v>246.7</v>
@@ -23096,9 +23310,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B60" s="34">
         <v>165.48</v>
@@ -23153,9 +23367,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B61" s="34">
         <v>178.46</v>
@@ -23210,9 +23424,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B62" s="34">
         <v>210.65</v>
@@ -23267,9 +23481,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B63" s="34">
         <v>216.98</v>
@@ -23324,9 +23538,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B64" s="34">
         <v>313.39999999999998</v>
@@ -23381,9 +23595,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B65" s="34">
         <v>283.39999999999998</v>
@@ -23438,9 +23652,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B66" s="34">
         <v>165.4</v>
@@ -23495,9 +23709,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B67" s="34">
         <v>198.4</v>
@@ -23552,9 +23766,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B68" s="34">
         <v>264.8</v>
@@ -23609,9 +23823,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B69" s="34">
         <v>266.8</v>
@@ -23666,9 +23880,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B70" s="34">
         <v>304.89999999999998</v>
@@ -23723,9 +23937,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B71" s="34">
         <v>165.1</v>
@@ -23780,9 +23994,9 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B72" s="34">
         <v>285.39999999999998</v>
@@ -23837,7 +24051,7 @@
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K73" s="40">
         <f>SUM(K53:K72)</f>
         <v>52113.749999999993</v>
@@ -23847,12 +24061,12 @@
         <v>36399.119999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K74" s="1">
         <f>+K73/20</f>
@@ -23863,169 +24077,169 @@
         <v>1819.9559999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" s="37"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D79" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B77" s="37"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D79" s="15" t="s">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D80" s="1" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D80" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E80" s="1">
         <v>0.373</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E81" s="39">
         <f>+K74+E80*L74</f>
         <v>3284.5310879999993</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E82" s="39">
         <f>+K74-E80*L74</f>
         <v>1926.8439119999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98" s="37"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C100" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B98" s="37"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C101" s="1" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D101" s="1">
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D102" s="1">
         <v>1.9239999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C104" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D104" s="39">
         <f>+D101*L74</f>
         <v>247.51401599999997</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C105" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D105" s="39">
         <f>+D102*L74</f>
         <v>3501.5953439999994</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B113" s="37"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="49"/>
       <c r="B114" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C114"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E116" s="50" t="s">
         <v>344</v>
-      </c>
-      <c r="C114"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="50" t="s">
-        <v>345</v>
       </c>
       <c r="F116" s="51">
         <f>_xlfn.STDEV.S(B53:I72)*G51</f>
         <v>680.1049635776908</v>
       </c>
       <c r="G116" s="52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H116" s="52">
         <f>+K74+F117*F116</f>
         <v>4646.0023907330724</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E117" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F117" s="53">
         <v>3</v>
       </c>
       <c r="G117" s="52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H117" s="52">
         <f>+K74-F117*F116</f>
         <v>565.37260926692716</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E121" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F121" s="48">
         <f>(H116-H117)/(6*C124)</f>
         <v>1.0639041995002549</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C122" s="1">
         <v>2.847</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C124" s="1">
         <f>+L74/C122</f>
         <v>639.25395152792407</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B126" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F127" s="54" t="s">
         <v>25</v>
       </c>
@@ -24034,71 +24248,71 @@
         <v>2605.6874999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F128" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G128" s="54">
         <f>+H116</f>
         <v>4646.0023907330724</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F129" s="54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G129" s="54">
         <f>+H117</f>
         <v>565.37260926692716</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G132" s="1">
         <f>+G128-G127</f>
         <v>2040.3148907330728</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G133" s="1">
         <f>+G127-G129</f>
         <v>2040.3148907330724</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C134" s="48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D134" s="48">
         <f>+G133/(3*C124)</f>
         <v>1.0639041995002549</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A179" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A180" s="49" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A179" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A180" s="49" t="s">
-        <v>355</v>
-      </c>
       <c r="B180" s="49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C180"/>
       <c r="D180"/>
@@ -24106,7 +24320,7 @@
       <c r="F180"/>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -24115,7 +24329,7 @@
       <c r="F181"/>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -24124,68 +24338,68 @@
       <c r="F182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="D183" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="D183" s="49" t="s">
+      <c r="H183" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="H183" s="49" t="s">
+      <c r="K183" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="K183" s="55" t="s">
+      <c r="N183" s="49" t="s">
         <v>359</v>
-      </c>
-      <c r="N183" s="49" t="s">
-        <v>360</v>
       </c>
       <c r="P183"/>
       <c r="R183" s="49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="D184" t="s">
+        <v>488</v>
+      </c>
+      <c r="H184" t="s">
+        <v>490</v>
+      </c>
+      <c r="K184" t="s">
         <v>362</v>
       </c>
-      <c r="D184" t="s">
-        <v>489</v>
-      </c>
-      <c r="H184" t="s">
-        <v>491</v>
-      </c>
-      <c r="K184" t="s">
+      <c r="N184" t="s">
         <v>363</v>
-      </c>
-      <c r="N184" t="s">
-        <v>364</v>
       </c>
       <c r="P184"/>
       <c r="R184" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="D185" t="s">
+        <v>489</v>
+      </c>
+      <c r="H185" t="s">
         <v>366</v>
       </c>
-      <c r="D185" t="s">
-        <v>490</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="K185" t="s">
         <v>367</v>
       </c>
-      <c r="K185" t="s">
+      <c r="N185" t="s">
         <v>368</v>
-      </c>
-      <c r="N185" t="s">
-        <v>369</v>
       </c>
       <c r="P185"/>
       <c r="R185"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186"/>
       <c r="D186"/>
       <c r="H186"/>
@@ -24194,7 +24408,7 @@
       <c r="P186"/>
       <c r="R186"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187"/>
       <c r="D187"/>
       <c r="H187"/>
@@ -24203,7 +24417,7 @@
       <c r="P187"/>
       <c r="R187"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188"/>
       <c r="D188"/>
       <c r="H188"/>
@@ -24212,7 +24426,7 @@
       <c r="P188"/>
       <c r="R188"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189"/>
       <c r="D189"/>
       <c r="H189"/>
@@ -24221,7 +24435,7 @@
       <c r="P189"/>
       <c r="R189"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190"/>
       <c r="D190"/>
       <c r="H190"/>
@@ -24230,86 +24444,86 @@
       <c r="P190"/>
       <c r="R190"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D191" s="49" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H191" s="49" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K191" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="N191" s="49" t="s">
         <v>363</v>
-      </c>
-      <c r="N191" s="49" t="s">
-        <v>364</v>
       </c>
       <c r="P191"/>
       <c r="R191" s="49" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>370</v>
+      </c>
+      <c r="D192" t="s">
         <v>371</v>
       </c>
-      <c r="D192" t="s">
+      <c r="H192" t="s">
         <v>372</v>
       </c>
-      <c r="H192" t="s">
+      <c r="K192" t="s">
         <v>373</v>
       </c>
-      <c r="K192" t="s">
+      <c r="N192" t="s">
         <v>374</v>
-      </c>
-      <c r="N192" t="s">
-        <v>375</v>
       </c>
       <c r="P192"/>
       <c r="R192" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="D193" t="s">
         <v>377</v>
       </c>
-      <c r="D193" t="s">
+      <c r="H193" t="s">
         <v>378</v>
       </c>
-      <c r="H193" t="s">
+      <c r="K193" t="s">
         <v>379</v>
       </c>
-      <c r="K193" t="s">
-        <v>380</v>
-      </c>
       <c r="N193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P193"/>
       <c r="Q193"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194"/>
       <c r="D194"/>
       <c r="H194" t="s">
+        <v>380</v>
+      </c>
+      <c r="K194" t="s">
         <v>381</v>
-      </c>
-      <c r="K194" t="s">
-        <v>382</v>
       </c>
       <c r="N194"/>
       <c r="P194"/>
       <c r="Q194"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D195" s="49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H195"/>
       <c r="K195"/>
@@ -24317,62 +24531,62 @@
       <c r="O195"/>
       <c r="P195"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D196" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H196" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K196" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="K196" s="49" t="s">
+      <c r="N196" s="49" t="s">
         <v>368</v>
-      </c>
-      <c r="N196" s="49" t="s">
-        <v>369</v>
       </c>
       <c r="O196"/>
       <c r="P196"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D197" t="s">
+        <v>382</v>
+      </c>
+      <c r="H197" t="s">
+        <v>381</v>
+      </c>
+      <c r="K197" t="s">
         <v>383</v>
       </c>
-      <c r="H197" t="s">
-        <v>382</v>
-      </c>
-      <c r="K197" t="s">
-        <v>384</v>
-      </c>
       <c r="N197" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O197"/>
       <c r="P197"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198"/>
       <c r="D198"/>
       <c r="H198" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N198" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O198"/>
       <c r="P198"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D199"/>
       <c r="H199"/>
@@ -24381,9 +24595,9 @@
       <c r="M199"/>
       <c r="N199"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D200"/>
       <c r="H200"/>
@@ -24392,9 +24606,9 @@
       <c r="M200"/>
       <c r="N200"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D201"/>
       <c r="H201"/>
@@ -24403,7 +24617,7 @@
       <c r="K201"/>
       <c r="L201"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -24412,7 +24626,7 @@
       <c r="F202"/>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -24421,9 +24635,9 @@
       <c r="F203"/>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B204"/>
       <c r="C204"/>
@@ -24432,7 +24646,7 @@
       <c r="F204"/>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -24441,7 +24655,7 @@
       <c r="F205"/>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -24450,7 +24664,7 @@
       <c r="F206"/>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -24459,7 +24673,7 @@
       <c r="F207"/>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -24468,7 +24682,7 @@
       <c r="F208"/>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -24477,7 +24691,7 @@
       <c r="F209"/>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -24486,7 +24700,7 @@
       <c r="F210"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -24495,7 +24709,7 @@
       <c r="F211"/>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -24504,7 +24718,7 @@
       <c r="F212"/>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -24513,7 +24727,7 @@
       <c r="F213"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -24522,7 +24736,7 @@
       <c r="F214"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -24531,7 +24745,7 @@
       <c r="F215"/>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -24540,7 +24754,7 @@
       <c r="F216"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -24549,7 +24763,7 @@
       <c r="F217"/>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -24558,7 +24772,7 @@
       <c r="F218"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -24567,7 +24781,7 @@
       <c r="F219"/>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -24576,7 +24790,7 @@
       <c r="F220"/>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -24585,7 +24799,7 @@
       <c r="F221"/>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -24594,7 +24808,7 @@
       <c r="F222"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -24603,7 +24817,7 @@
       <c r="F223"/>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -24612,7 +24826,7 @@
       <c r="F224"/>
       <c r="G224"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -24621,7 +24835,7 @@
       <c r="F225"/>
       <c r="G225"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -24630,7 +24844,7 @@
       <c r="F226"/>
       <c r="G226"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -24639,7 +24853,7 @@
       <c r="F227"/>
       <c r="G227"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -24648,7 +24862,7 @@
       <c r="F228"/>
       <c r="G228"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -24657,7 +24871,7 @@
       <c r="F229"/>
       <c r="G229"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -24666,7 +24880,7 @@
       <c r="F230"/>
       <c r="G230"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -24675,7 +24889,7 @@
       <c r="F231"/>
       <c r="G231"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -24684,7 +24898,7 @@
       <c r="F232"/>
       <c r="G232"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -24693,7 +24907,7 @@
       <c r="F233"/>
       <c r="G233"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
@@ -24702,7 +24916,7 @@
       <c r="F234"/>
       <c r="G234"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
@@ -24711,7 +24925,7 @@
       <c r="F235"/>
       <c r="G235"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
@@ -24720,10 +24934,10 @@
       <c r="F236"/>
       <c r="G236"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237"/>
       <c r="B237" s="56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C237" s="48"/>
       <c r="D237"/>
@@ -24731,7 +24945,7 @@
       <c r="F237"/>
       <c r="G237"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
@@ -24740,12 +24954,12 @@
       <c r="F238"/>
       <c r="G238"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C239"/>
       <c r="D239"/>
@@ -24753,12 +24967,12 @@
       <c r="F239"/>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2</v>
       </c>
       <c r="B240" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C240"/>
       <c r="D240"/>
@@ -24766,12 +24980,12 @@
       <c r="F240"/>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C241"/>
       <c r="D241"/>
@@ -24782,12 +24996,12 @@
       <c r="I241"/>
       <c r="J241"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C242"/>
       <c r="D242"/>
@@ -24798,12 +25012,12 @@
       <c r="I242"/>
       <c r="J242" s="49"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C243"/>
       <c r="D243"/>
@@ -24811,12 +25025,12 @@
       <c r="F243"/>
       <c r="G243"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C244"/>
       <c r="D244"/>
@@ -24824,12 +25038,12 @@
       <c r="F244"/>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>7</v>
       </c>
       <c r="B245" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C245"/>
       <c r="D245"/>
@@ -24840,12 +25054,12 @@
       <c r="I245"/>
       <c r="J245" s="49"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C246"/>
       <c r="D246"/>
@@ -24853,12 +25067,12 @@
       <c r="F246"/>
       <c r="G246"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C247"/>
       <c r="D247"/>
@@ -24866,12 +25080,12 @@
       <c r="F247"/>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>10</v>
       </c>
       <c r="B248" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C248"/>
       <c r="D248"/>
@@ -24879,7 +25093,7 @@
       <c r="F248"/>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
@@ -24888,27 +25102,27 @@
       <c r="F249"/>
       <c r="G249"/>
     </row>
-    <row r="251" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="35" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="37">
         <v>1</v>
       </c>
       <c r="B255" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C255" s="48"/>
       <c r="D255" s="48"/>
@@ -24919,9 +25133,9 @@
       <c r="I255" s="48"/>
       <c r="J255" s="49"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B256" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C256" s="49"/>
       <c r="D256" s="49"/>
@@ -24932,19 +25146,19 @@
       <c r="I256" s="49"/>
       <c r="J256" s="49"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B257" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C257"/>
       <c r="D257"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="37">
         <v>2</v>
       </c>
       <c r="B258" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="37"/>
@@ -24954,21 +25168,21 @@
       <c r="H258" s="37"/>
       <c r="I258" s="37"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B261" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C261" s="49"/>
       <c r="D261" s="49"/>
@@ -24976,402 +25190,402 @@
       <c r="F261" s="15"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C263" s="112" t="s">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C263" s="113" t="s">
+        <v>401</v>
+      </c>
+      <c r="D263" s="113"/>
+      <c r="E263" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="F263" s="106"/>
+      <c r="G263" s="106" t="s">
+        <v>395</v>
+      </c>
+      <c r="H263" s="106"/>
+      <c r="I263" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="J263" s="87"/>
+      <c r="K263" s="87" t="s">
+        <v>396</v>
+      </c>
+      <c r="L263" s="87"/>
+      <c r="M263" s="114" t="s">
         <v>402</v>
       </c>
-      <c r="D263" s="112"/>
-      <c r="E263" s="105" t="s">
-        <v>393</v>
-      </c>
-      <c r="F263" s="105"/>
-      <c r="G263" s="105" t="s">
-        <v>396</v>
-      </c>
-      <c r="H263" s="105"/>
-      <c r="I263" s="86" t="s">
-        <v>391</v>
-      </c>
-      <c r="J263" s="86"/>
-      <c r="K263" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="L263" s="86"/>
-      <c r="M263" s="113" t="s">
+      <c r="N263" s="115"/>
+      <c r="O263" s="120" t="s">
         <v>403</v>
       </c>
-      <c r="N263" s="114"/>
-      <c r="O263" s="119" t="s">
-        <v>404</v>
-      </c>
-      <c r="P263" s="114"/>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C264" s="112"/>
-      <c r="D264" s="112"/>
-      <c r="E264" s="105"/>
-      <c r="F264" s="105"/>
-      <c r="G264" s="105"/>
-      <c r="H264" s="105"/>
-      <c r="I264" s="86"/>
-      <c r="J264" s="86"/>
-      <c r="K264" s="86"/>
-      <c r="L264" s="86"/>
-      <c r="M264" s="115"/>
-      <c r="N264" s="116"/>
-      <c r="O264" s="120"/>
-      <c r="P264" s="116"/>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C265" s="112"/>
-      <c r="D265" s="112"/>
-      <c r="E265" s="105"/>
-      <c r="F265" s="105"/>
-      <c r="G265" s="105"/>
-      <c r="H265" s="105"/>
-      <c r="I265" s="86"/>
-      <c r="J265" s="86"/>
-      <c r="K265" s="86"/>
-      <c r="L265" s="86"/>
-      <c r="M265" s="115"/>
-      <c r="N265" s="116"/>
-      <c r="O265" s="120"/>
-      <c r="P265" s="116"/>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C266" s="112"/>
-      <c r="D266" s="112"/>
-      <c r="E266" s="105"/>
-      <c r="F266" s="105"/>
-      <c r="G266" s="105"/>
-      <c r="H266" s="105"/>
-      <c r="I266" s="86"/>
-      <c r="J266" s="86"/>
-      <c r="K266" s="86"/>
-      <c r="L266" s="86"/>
-      <c r="M266" s="117"/>
-      <c r="N266" s="118"/>
-      <c r="O266" s="121"/>
-      <c r="P266" s="118"/>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C267" s="105" t="s">
-        <v>393</v>
-      </c>
-      <c r="D267" s="105"/>
-      <c r="E267" s="93"/>
-      <c r="F267" s="94"/>
-      <c r="G267" s="106">
+      <c r="P263" s="115"/>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C264" s="113"/>
+      <c r="D264" s="113"/>
+      <c r="E264" s="106"/>
+      <c r="F264" s="106"/>
+      <c r="G264" s="106"/>
+      <c r="H264" s="106"/>
+      <c r="I264" s="87"/>
+      <c r="J264" s="87"/>
+      <c r="K264" s="87"/>
+      <c r="L264" s="87"/>
+      <c r="M264" s="116"/>
+      <c r="N264" s="117"/>
+      <c r="O264" s="121"/>
+      <c r="P264" s="117"/>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C265" s="113"/>
+      <c r="D265" s="113"/>
+      <c r="E265" s="106"/>
+      <c r="F265" s="106"/>
+      <c r="G265" s="106"/>
+      <c r="H265" s="106"/>
+      <c r="I265" s="87"/>
+      <c r="J265" s="87"/>
+      <c r="K265" s="87"/>
+      <c r="L265" s="87"/>
+      <c r="M265" s="116"/>
+      <c r="N265" s="117"/>
+      <c r="O265" s="121"/>
+      <c r="P265" s="117"/>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C266" s="113"/>
+      <c r="D266" s="113"/>
+      <c r="E266" s="106"/>
+      <c r="F266" s="106"/>
+      <c r="G266" s="106"/>
+      <c r="H266" s="106"/>
+      <c r="I266" s="87"/>
+      <c r="J266" s="87"/>
+      <c r="K266" s="87"/>
+      <c r="L266" s="87"/>
+      <c r="M266" s="118"/>
+      <c r="N266" s="119"/>
+      <c r="O266" s="122"/>
+      <c r="P266" s="119"/>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C267" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="D267" s="106"/>
+      <c r="E267" s="94"/>
+      <c r="F267" s="95"/>
+      <c r="G267" s="107">
         <v>1</v>
       </c>
-      <c r="H267" s="107"/>
-      <c r="I267" s="106">
+      <c r="H267" s="108"/>
+      <c r="I267" s="107">
         <v>1</v>
       </c>
-      <c r="J267" s="107"/>
-      <c r="K267" s="106">
+      <c r="J267" s="108"/>
+      <c r="K267" s="107">
         <v>1</v>
       </c>
-      <c r="L267" s="107"/>
-      <c r="M267" s="106">
+      <c r="L267" s="108"/>
+      <c r="M267" s="107">
         <f>SUM(E267:L270)</f>
         <v>3</v>
       </c>
-      <c r="N267" s="107"/>
-      <c r="O267" s="80">
+      <c r="N267" s="108"/>
+      <c r="O267" s="81">
         <v>1</v>
       </c>
-      <c r="P267" s="81"/>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C268" s="105"/>
-      <c r="D268" s="105"/>
-      <c r="E268" s="95"/>
-      <c r="F268" s="96"/>
-      <c r="G268" s="108"/>
-      <c r="H268" s="109"/>
-      <c r="I268" s="108"/>
-      <c r="J268" s="109"/>
-      <c r="K268" s="108"/>
-      <c r="L268" s="109"/>
-      <c r="M268" s="108"/>
-      <c r="N268" s="109"/>
-      <c r="O268" s="82"/>
-      <c r="P268" s="83"/>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C269" s="105"/>
-      <c r="D269" s="105"/>
-      <c r="E269" s="95"/>
-      <c r="F269" s="96"/>
-      <c r="G269" s="108"/>
-      <c r="H269" s="109"/>
-      <c r="I269" s="108"/>
-      <c r="J269" s="109"/>
-      <c r="K269" s="108"/>
-      <c r="L269" s="109"/>
-      <c r="M269" s="108"/>
-      <c r="N269" s="109"/>
-      <c r="O269" s="82"/>
-      <c r="P269" s="83"/>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C270" s="105"/>
-      <c r="D270" s="105"/>
-      <c r="E270" s="97"/>
-      <c r="F270" s="98"/>
-      <c r="G270" s="110"/>
-      <c r="H270" s="111"/>
-      <c r="I270" s="110"/>
-      <c r="J270" s="111"/>
-      <c r="K270" s="110"/>
-      <c r="L270" s="111"/>
-      <c r="M270" s="110"/>
-      <c r="N270" s="111"/>
-      <c r="O270" s="84"/>
-      <c r="P270" s="85"/>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C271" s="105" t="s">
+      <c r="P267" s="82"/>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C268" s="106"/>
+      <c r="D268" s="106"/>
+      <c r="E268" s="96"/>
+      <c r="F268" s="97"/>
+      <c r="G268" s="109"/>
+      <c r="H268" s="110"/>
+      <c r="I268" s="109"/>
+      <c r="J268" s="110"/>
+      <c r="K268" s="109"/>
+      <c r="L268" s="110"/>
+      <c r="M268" s="109"/>
+      <c r="N268" s="110"/>
+      <c r="O268" s="83"/>
+      <c r="P268" s="84"/>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C269" s="106"/>
+      <c r="D269" s="106"/>
+      <c r="E269" s="96"/>
+      <c r="F269" s="97"/>
+      <c r="G269" s="109"/>
+      <c r="H269" s="110"/>
+      <c r="I269" s="109"/>
+      <c r="J269" s="110"/>
+      <c r="K269" s="109"/>
+      <c r="L269" s="110"/>
+      <c r="M269" s="109"/>
+      <c r="N269" s="110"/>
+      <c r="O269" s="83"/>
+      <c r="P269" s="84"/>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C270" s="106"/>
+      <c r="D270" s="106"/>
+      <c r="E270" s="98"/>
+      <c r="F270" s="99"/>
+      <c r="G270" s="111"/>
+      <c r="H270" s="112"/>
+      <c r="I270" s="111"/>
+      <c r="J270" s="112"/>
+      <c r="K270" s="111"/>
+      <c r="L270" s="112"/>
+      <c r="M270" s="111"/>
+      <c r="N270" s="112"/>
+      <c r="O270" s="85"/>
+      <c r="P270" s="86"/>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C271" s="106" t="s">
+        <v>395</v>
+      </c>
+      <c r="D271" s="106"/>
+      <c r="E271" s="88">
+        <v>0</v>
+      </c>
+      <c r="F271" s="89"/>
+      <c r="G271" s="94"/>
+      <c r="H271" s="95"/>
+      <c r="I271" s="88">
+        <v>1</v>
+      </c>
+      <c r="J271" s="89"/>
+      <c r="K271" s="88">
+        <v>0</v>
+      </c>
+      <c r="L271" s="89"/>
+      <c r="M271" s="100">
+        <v>1</v>
+      </c>
+      <c r="N271" s="101"/>
+      <c r="O271" s="81">
+        <v>3</v>
+      </c>
+      <c r="P271" s="82"/>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C272" s="106"/>
+      <c r="D272" s="106"/>
+      <c r="E272" s="90"/>
+      <c r="F272" s="91"/>
+      <c r="G272" s="96"/>
+      <c r="H272" s="97"/>
+      <c r="I272" s="90"/>
+      <c r="J272" s="91"/>
+      <c r="K272" s="90"/>
+      <c r="L272" s="91"/>
+      <c r="M272" s="102"/>
+      <c r="N272" s="103"/>
+      <c r="O272" s="83"/>
+      <c r="P272" s="84"/>
+    </row>
+    <row r="273" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C273" s="106"/>
+      <c r="D273" s="106"/>
+      <c r="E273" s="90"/>
+      <c r="F273" s="91"/>
+      <c r="G273" s="96"/>
+      <c r="H273" s="97"/>
+      <c r="I273" s="90"/>
+      <c r="J273" s="91"/>
+      <c r="K273" s="90"/>
+      <c r="L273" s="91"/>
+      <c r="M273" s="102"/>
+      <c r="N273" s="103"/>
+      <c r="O273" s="83"/>
+      <c r="P273" s="84"/>
+    </row>
+    <row r="274" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C274" s="106"/>
+      <c r="D274" s="106"/>
+      <c r="E274" s="92"/>
+      <c r="F274" s="93"/>
+      <c r="G274" s="98"/>
+      <c r="H274" s="99"/>
+      <c r="I274" s="92"/>
+      <c r="J274" s="93"/>
+      <c r="K274" s="92"/>
+      <c r="L274" s="93"/>
+      <c r="M274" s="104"/>
+      <c r="N274" s="105"/>
+      <c r="O274" s="85"/>
+      <c r="P274" s="86"/>
+    </row>
+    <row r="275" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C275" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="D275" s="87"/>
+      <c r="E275" s="88">
+        <v>0</v>
+      </c>
+      <c r="F275" s="89"/>
+      <c r="G275" s="88">
+        <v>0</v>
+      </c>
+      <c r="H275" s="89"/>
+      <c r="I275" s="94"/>
+      <c r="J275" s="95"/>
+      <c r="K275" s="88">
+        <v>0</v>
+      </c>
+      <c r="L275" s="89"/>
+      <c r="M275" s="100">
+        <v>0</v>
+      </c>
+      <c r="N275" s="101"/>
+      <c r="O275" s="81">
+        <v>4</v>
+      </c>
+      <c r="P275" s="82"/>
+    </row>
+    <row r="276" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C276" s="87"/>
+      <c r="D276" s="87"/>
+      <c r="E276" s="90"/>
+      <c r="F276" s="91"/>
+      <c r="G276" s="90"/>
+      <c r="H276" s="91"/>
+      <c r="I276" s="96"/>
+      <c r="J276" s="97"/>
+      <c r="K276" s="90"/>
+      <c r="L276" s="91"/>
+      <c r="M276" s="102"/>
+      <c r="N276" s="103"/>
+      <c r="O276" s="83"/>
+      <c r="P276" s="84"/>
+    </row>
+    <row r="277" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C277" s="87"/>
+      <c r="D277" s="87"/>
+      <c r="E277" s="90"/>
+      <c r="F277" s="91"/>
+      <c r="G277" s="90"/>
+      <c r="H277" s="91"/>
+      <c r="I277" s="96"/>
+      <c r="J277" s="97"/>
+      <c r="K277" s="90"/>
+      <c r="L277" s="91"/>
+      <c r="M277" s="102"/>
+      <c r="N277" s="103"/>
+      <c r="O277" s="83"/>
+      <c r="P277" s="84"/>
+    </row>
+    <row r="278" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C278" s="87"/>
+      <c r="D278" s="87"/>
+      <c r="E278" s="92"/>
+      <c r="F278" s="93"/>
+      <c r="G278" s="92"/>
+      <c r="H278" s="93"/>
+      <c r="I278" s="98"/>
+      <c r="J278" s="99"/>
+      <c r="K278" s="92"/>
+      <c r="L278" s="93"/>
+      <c r="M278" s="104"/>
+      <c r="N278" s="105"/>
+      <c r="O278" s="85"/>
+      <c r="P278" s="86"/>
+    </row>
+    <row r="279" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C279" s="87" t="s">
         <v>396</v>
       </c>
-      <c r="D271" s="105"/>
-      <c r="E271" s="87">
+      <c r="D279" s="87"/>
+      <c r="E279" s="88">
         <v>0</v>
       </c>
-      <c r="F271" s="88"/>
-      <c r="G271" s="93"/>
-      <c r="H271" s="94"/>
-      <c r="I271" s="87">
+      <c r="F279" s="89"/>
+      <c r="G279" s="88">
         <v>1</v>
       </c>
-      <c r="J271" s="88"/>
-      <c r="K271" s="87">
-        <v>0</v>
-      </c>
-      <c r="L271" s="88"/>
-      <c r="M271" s="99">
+      <c r="H279" s="89"/>
+      <c r="I279" s="88">
         <v>1</v>
       </c>
-      <c r="N271" s="100"/>
-      <c r="O271" s="80">
-        <v>3</v>
-      </c>
-      <c r="P271" s="81"/>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C272" s="105"/>
-      <c r="D272" s="105"/>
-      <c r="E272" s="89"/>
-      <c r="F272" s="90"/>
-      <c r="G272" s="95"/>
-      <c r="H272" s="96"/>
-      <c r="I272" s="89"/>
-      <c r="J272" s="90"/>
-      <c r="K272" s="89"/>
-      <c r="L272" s="90"/>
-      <c r="M272" s="101"/>
-      <c r="N272" s="102"/>
-      <c r="O272" s="82"/>
-      <c r="P272" s="83"/>
-    </row>
-    <row r="273" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C273" s="105"/>
-      <c r="D273" s="105"/>
-      <c r="E273" s="89"/>
-      <c r="F273" s="90"/>
-      <c r="G273" s="95"/>
-      <c r="H273" s="96"/>
-      <c r="I273" s="89"/>
-      <c r="J273" s="90"/>
-      <c r="K273" s="89"/>
-      <c r="L273" s="90"/>
-      <c r="M273" s="101"/>
-      <c r="N273" s="102"/>
-      <c r="O273" s="82"/>
-      <c r="P273" s="83"/>
-    </row>
-    <row r="274" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C274" s="105"/>
-      <c r="D274" s="105"/>
-      <c r="E274" s="91"/>
-      <c r="F274" s="92"/>
-      <c r="G274" s="97"/>
-      <c r="H274" s="98"/>
-      <c r="I274" s="91"/>
-      <c r="J274" s="92"/>
-      <c r="K274" s="91"/>
-      <c r="L274" s="92"/>
-      <c r="M274" s="103"/>
-      <c r="N274" s="104"/>
-      <c r="O274" s="84"/>
-      <c r="P274" s="85"/>
-    </row>
-    <row r="275" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C275" s="86" t="s">
-        <v>391</v>
-      </c>
-      <c r="D275" s="86"/>
-      <c r="E275" s="87">
-        <v>0</v>
-      </c>
-      <c r="F275" s="88"/>
-      <c r="G275" s="87">
-        <v>0</v>
-      </c>
-      <c r="H275" s="88"/>
-      <c r="I275" s="93"/>
-      <c r="J275" s="94"/>
-      <c r="K275" s="87">
-        <v>0</v>
-      </c>
-      <c r="L275" s="88"/>
-      <c r="M275" s="99">
-        <v>0</v>
-      </c>
-      <c r="N275" s="100"/>
-      <c r="O275" s="80">
-        <v>4</v>
-      </c>
-      <c r="P275" s="81"/>
-    </row>
-    <row r="276" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C276" s="86"/>
-      <c r="D276" s="86"/>
-      <c r="E276" s="89"/>
-      <c r="F276" s="90"/>
-      <c r="G276" s="89"/>
-      <c r="H276" s="90"/>
-      <c r="I276" s="95"/>
-      <c r="J276" s="96"/>
-      <c r="K276" s="89"/>
-      <c r="L276" s="90"/>
-      <c r="M276" s="101"/>
-      <c r="N276" s="102"/>
-      <c r="O276" s="82"/>
-      <c r="P276" s="83"/>
-    </row>
-    <row r="277" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C277" s="86"/>
-      <c r="D277" s="86"/>
-      <c r="E277" s="89"/>
-      <c r="F277" s="90"/>
-      <c r="G277" s="89"/>
-      <c r="H277" s="90"/>
-      <c r="I277" s="95"/>
-      <c r="J277" s="96"/>
-      <c r="K277" s="89"/>
-      <c r="L277" s="90"/>
-      <c r="M277" s="101"/>
-      <c r="N277" s="102"/>
-      <c r="O277" s="82"/>
-      <c r="P277" s="83"/>
-    </row>
-    <row r="278" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C278" s="86"/>
-      <c r="D278" s="86"/>
-      <c r="E278" s="91"/>
-      <c r="F278" s="92"/>
-      <c r="G278" s="91"/>
-      <c r="H278" s="92"/>
-      <c r="I278" s="97"/>
-      <c r="J278" s="98"/>
-      <c r="K278" s="91"/>
-      <c r="L278" s="92"/>
-      <c r="M278" s="103"/>
-      <c r="N278" s="104"/>
-      <c r="O278" s="84"/>
-      <c r="P278" s="85"/>
-    </row>
-    <row r="279" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C279" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="D279" s="86"/>
-      <c r="E279" s="87">
-        <v>0</v>
-      </c>
-      <c r="F279" s="88"/>
-      <c r="G279" s="87">
-        <v>1</v>
-      </c>
-      <c r="H279" s="88"/>
-      <c r="I279" s="87">
-        <v>1</v>
-      </c>
-      <c r="J279" s="88"/>
-      <c r="K279" s="93"/>
-      <c r="L279" s="94"/>
-      <c r="M279" s="99">
+      <c r="J279" s="89"/>
+      <c r="K279" s="94"/>
+      <c r="L279" s="95"/>
+      <c r="M279" s="100">
         <v>2</v>
       </c>
-      <c r="N279" s="100"/>
-      <c r="O279" s="80">
+      <c r="N279" s="101"/>
+      <c r="O279" s="81">
         <v>2</v>
       </c>
-      <c r="P279" s="81"/>
-    </row>
-    <row r="280" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C280" s="86"/>
-      <c r="D280" s="86"/>
-      <c r="E280" s="89"/>
-      <c r="F280" s="90"/>
-      <c r="G280" s="89"/>
-      <c r="H280" s="90"/>
-      <c r="I280" s="89"/>
-      <c r="J280" s="90"/>
-      <c r="K280" s="95"/>
-      <c r="L280" s="96"/>
-      <c r="M280" s="101"/>
-      <c r="N280" s="102"/>
-      <c r="O280" s="82"/>
-      <c r="P280" s="83"/>
-    </row>
-    <row r="281" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C281" s="86"/>
-      <c r="D281" s="86"/>
-      <c r="E281" s="89"/>
-      <c r="F281" s="90"/>
-      <c r="G281" s="89"/>
-      <c r="H281" s="90"/>
-      <c r="I281" s="89"/>
-      <c r="J281" s="90"/>
-      <c r="K281" s="95"/>
-      <c r="L281" s="96"/>
-      <c r="M281" s="101"/>
-      <c r="N281" s="102"/>
-      <c r="O281" s="82"/>
-      <c r="P281" s="83"/>
-    </row>
-    <row r="282" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C282" s="86"/>
-      <c r="D282" s="86"/>
-      <c r="E282" s="91"/>
-      <c r="F282" s="92"/>
-      <c r="G282" s="91"/>
-      <c r="H282" s="92"/>
-      <c r="I282" s="91"/>
-      <c r="J282" s="92"/>
-      <c r="K282" s="97"/>
-      <c r="L282" s="98"/>
-      <c r="M282" s="103"/>
-      <c r="N282" s="104"/>
-      <c r="O282" s="84"/>
-      <c r="P282" s="85"/>
-    </row>
-    <row r="285" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P279" s="82"/>
+    </row>
+    <row r="280" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C280" s="87"/>
+      <c r="D280" s="87"/>
+      <c r="E280" s="90"/>
+      <c r="F280" s="91"/>
+      <c r="G280" s="90"/>
+      <c r="H280" s="91"/>
+      <c r="I280" s="90"/>
+      <c r="J280" s="91"/>
+      <c r="K280" s="96"/>
+      <c r="L280" s="97"/>
+      <c r="M280" s="102"/>
+      <c r="N280" s="103"/>
+      <c r="O280" s="83"/>
+      <c r="P280" s="84"/>
+    </row>
+    <row r="281" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C281" s="87"/>
+      <c r="D281" s="87"/>
+      <c r="E281" s="90"/>
+      <c r="F281" s="91"/>
+      <c r="G281" s="90"/>
+      <c r="H281" s="91"/>
+      <c r="I281" s="90"/>
+      <c r="J281" s="91"/>
+      <c r="K281" s="96"/>
+      <c r="L281" s="97"/>
+      <c r="M281" s="102"/>
+      <c r="N281" s="103"/>
+      <c r="O281" s="83"/>
+      <c r="P281" s="84"/>
+    </row>
+    <row r="282" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C282" s="87"/>
+      <c r="D282" s="87"/>
+      <c r="E282" s="92"/>
+      <c r="F282" s="93"/>
+      <c r="G282" s="92"/>
+      <c r="H282" s="93"/>
+      <c r="I282" s="92"/>
+      <c r="J282" s="93"/>
+      <c r="K282" s="98"/>
+      <c r="L282" s="99"/>
+      <c r="M282" s="104"/>
+      <c r="N282" s="105"/>
+      <c r="O282" s="85"/>
+      <c r="P282" s="86"/>
+    </row>
+    <row r="285" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C285" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="287" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C287" s="48" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="287" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C287" s="48" t="s">
-        <v>406</v>
       </c>
       <c r="D287" s="37"/>
       <c r="E287" s="37"/>
@@ -25387,862 +25601,862 @@
       <c r="O287" s="37"/>
       <c r="P287" s="37"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B292" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B293" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B294" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B296" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C296" s="1" t="s">
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C297" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C297" s="1" t="s">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C299" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C299" s="1" t="s">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C300" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C300" s="1" t="s">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C301" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C301" s="1" t="s">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C303" s="48" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C303" s="48" t="s">
-        <v>414</v>
       </c>
       <c r="D303" s="37"/>
       <c r="E303" s="37"/>
     </row>
-    <row r="304" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C304" s="78" t="s">
+    <row r="304" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D304" s="79"/>
+      <c r="E304" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="D304" s="78"/>
-      <c r="E304" s="79" t="s">
+      <c r="F304" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="F304" s="79" t="s">
+      <c r="G304" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="G304" s="79" t="s">
+    </row>
+    <row r="305" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C305" s="79"/>
+      <c r="D305" s="79"/>
+      <c r="E305" s="80"/>
+      <c r="F305" s="80"/>
+      <c r="G305" s="80"/>
+    </row>
+    <row r="306" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C306" s="79"/>
+      <c r="D306" s="79"/>
+      <c r="E306" s="80"/>
+      <c r="F306" s="80"/>
+      <c r="G306" s="80"/>
+    </row>
+    <row r="307" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C307" s="79"/>
+      <c r="D307" s="79"/>
+      <c r="E307" s="80"/>
+      <c r="F307" s="80"/>
+      <c r="G307" s="80"/>
+    </row>
+    <row r="308" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C308" s="75" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C305" s="78"/>
-      <c r="D305" s="78"/>
-      <c r="E305" s="79"/>
-      <c r="F305" s="79"/>
-      <c r="G305" s="79"/>
-    </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C306" s="78"/>
-      <c r="D306" s="78"/>
-      <c r="E306" s="79"/>
-      <c r="F306" s="79"/>
-      <c r="G306" s="79"/>
-    </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C307" s="78"/>
-      <c r="D307" s="78"/>
-      <c r="E307" s="79"/>
-      <c r="F307" s="79"/>
-      <c r="G307" s="79"/>
-    </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C308" s="74" t="s">
+      <c r="D308" s="75"/>
+      <c r="E308" s="76"/>
+      <c r="F308" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="D308" s="74"/>
-      <c r="E308" s="75"/>
-      <c r="F308" s="75" t="s">
+      <c r="G308" s="76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="309" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C309" s="75"/>
+      <c r="D309" s="75"/>
+      <c r="E309" s="77"/>
+      <c r="F309" s="77"/>
+      <c r="G309" s="77"/>
+    </row>
+    <row r="310" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C310" s="75" t="s">
         <v>420</v>
       </c>
-      <c r="G308" s="75" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C309" s="74"/>
-      <c r="D309" s="74"/>
-      <c r="E309" s="76"/>
-      <c r="F309" s="76"/>
-      <c r="G309" s="76"/>
-    </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C310" s="74" t="s">
+      <c r="D310" s="75"/>
+      <c r="E310" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="F310" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="G310" s="76"/>
+    </row>
+    <row r="311" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C311" s="75"/>
+      <c r="D311" s="75"/>
+      <c r="E311" s="77"/>
+      <c r="F311" s="77"/>
+      <c r="G311" s="77"/>
+    </row>
+    <row r="312" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C312" s="75" t="s">
         <v>421</v>
       </c>
-      <c r="D310" s="74"/>
-      <c r="E310" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="F310" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="G310" s="75"/>
-    </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C311" s="74"/>
-      <c r="D311" s="74"/>
-      <c r="E311" s="76"/>
-      <c r="F311" s="76"/>
-      <c r="G311" s="76"/>
-    </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C312" s="74" t="s">
+      <c r="D312" s="75"/>
+      <c r="E312" s="76"/>
+      <c r="F312" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="G312" s="76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="313" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C313" s="75"/>
+      <c r="D313" s="75"/>
+      <c r="E313" s="77"/>
+      <c r="F313" s="77"/>
+      <c r="G313" s="77"/>
+    </row>
+    <row r="314" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C314" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="D312" s="74"/>
-      <c r="E312" s="75"/>
-      <c r="F312" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="G312" s="75" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C313" s="74"/>
-      <c r="D313" s="74"/>
-      <c r="E313" s="76"/>
-      <c r="F313" s="76"/>
-      <c r="G313" s="76"/>
-    </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C314" s="74" t="s">
+      <c r="D314" s="75"/>
+      <c r="E314" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="F314" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="G314" s="76"/>
+    </row>
+    <row r="315" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C315" s="75"/>
+      <c r="D315" s="75"/>
+      <c r="E315" s="77"/>
+      <c r="F315" s="77"/>
+      <c r="G315" s="77"/>
+    </row>
+    <row r="316" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C316" s="75" t="s">
         <v>423</v>
       </c>
-      <c r="D314" s="74"/>
-      <c r="E314" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="F314" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="G314" s="75"/>
-    </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C315" s="74"/>
-      <c r="D315" s="74"/>
-      <c r="E315" s="76"/>
-      <c r="F315" s="76"/>
-      <c r="G315" s="76"/>
-    </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C316" s="74" t="s">
+      <c r="D316" s="75"/>
+      <c r="E316" s="76" t="s">
         <v>424</v>
       </c>
-      <c r="D316" s="74"/>
-      <c r="E316" s="75" t="s">
+      <c r="F316" s="76"/>
+      <c r="G316" s="76"/>
+    </row>
+    <row r="317" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C317" s="75"/>
+      <c r="D317" s="75"/>
+      <c r="E317" s="77"/>
+      <c r="F317" s="77"/>
+      <c r="G317" s="77"/>
+    </row>
+    <row r="318" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C318" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="F316" s="75"/>
-      <c r="G316" s="75"/>
-    </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C317" s="74"/>
-      <c r="D317" s="74"/>
-      <c r="E317" s="76"/>
-      <c r="F317" s="76"/>
-      <c r="G317" s="76"/>
-    </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C318" s="74" t="s">
+      <c r="D318" s="75"/>
+      <c r="E318" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="F318" s="76"/>
+      <c r="G318" s="76"/>
+    </row>
+    <row r="319" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C319" s="75"/>
+      <c r="D319" s="75"/>
+      <c r="E319" s="77"/>
+      <c r="F319" s="77"/>
+      <c r="G319" s="77"/>
+    </row>
+    <row r="320" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C320" s="75" t="s">
         <v>426</v>
       </c>
-      <c r="D318" s="74"/>
-      <c r="E318" s="75" t="s">
-        <v>425</v>
-      </c>
-      <c r="F318" s="75"/>
-      <c r="G318" s="75"/>
-    </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C319" s="74"/>
-      <c r="D319" s="74"/>
-      <c r="E319" s="76"/>
-      <c r="F319" s="76"/>
-      <c r="G319" s="76"/>
-    </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C320" s="74" t="s">
+      <c r="D320" s="75"/>
+      <c r="E320" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="F320" s="76"/>
+      <c r="G320" s="76"/>
+    </row>
+    <row r="321" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C321" s="75"/>
+      <c r="D321" s="75"/>
+      <c r="E321" s="77"/>
+      <c r="F321" s="77"/>
+      <c r="G321" s="77"/>
+    </row>
+    <row r="322" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C322" s="75" t="s">
         <v>427</v>
       </c>
-      <c r="D320" s="74"/>
-      <c r="E320" s="75" t="s">
-        <v>425</v>
-      </c>
-      <c r="F320" s="75"/>
-      <c r="G320" s="75"/>
-    </row>
-    <row r="321" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C321" s="74"/>
-      <c r="D321" s="74"/>
-      <c r="E321" s="76"/>
-      <c r="F321" s="76"/>
-      <c r="G321" s="76"/>
-    </row>
-    <row r="322" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C322" s="74" t="s">
+      <c r="D322" s="75"/>
+      <c r="E322" s="76"/>
+      <c r="F322" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="G322" s="76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C323" s="75"/>
+      <c r="D323" s="75"/>
+      <c r="E323" s="77"/>
+      <c r="F323" s="77"/>
+      <c r="G323" s="77"/>
+    </row>
+    <row r="324" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C324" s="75" t="s">
         <v>428</v>
       </c>
-      <c r="D322" s="74"/>
-      <c r="E322" s="75"/>
-      <c r="F322" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="G322" s="75" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="323" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C323" s="74"/>
-      <c r="D323" s="74"/>
-      <c r="E323" s="76"/>
-      <c r="F323" s="76"/>
-      <c r="G323" s="76"/>
-    </row>
-    <row r="324" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C324" s="74" t="s">
+      <c r="D324" s="75"/>
+      <c r="E324" s="76"/>
+      <c r="F324" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="G324" s="76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="325" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C325" s="75"/>
+      <c r="D325" s="75"/>
+      <c r="E325" s="77"/>
+      <c r="F325" s="77"/>
+      <c r="G325" s="77"/>
+    </row>
+    <row r="326" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C326" s="75" t="s">
         <v>429</v>
       </c>
-      <c r="D324" s="74"/>
-      <c r="E324" s="75"/>
-      <c r="F324" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="G324" s="75" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="325" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C325" s="74"/>
-      <c r="D325" s="74"/>
-      <c r="E325" s="76"/>
-      <c r="F325" s="76"/>
-      <c r="G325" s="76"/>
-    </row>
-    <row r="326" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C326" s="74" t="s">
+      <c r="D326" s="75"/>
+      <c r="E326" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="F326" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="G326" s="76"/>
+    </row>
+    <row r="327" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C327" s="75"/>
+      <c r="D327" s="75"/>
+      <c r="E327" s="77"/>
+      <c r="F327" s="77"/>
+      <c r="G327" s="77"/>
+    </row>
+    <row r="328" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E328" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D326" s="74"/>
-      <c r="E326" s="75" t="s">
-        <v>425</v>
-      </c>
-      <c r="F326" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="G326" s="75"/>
-    </row>
-    <row r="327" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C327" s="74"/>
-      <c r="D327" s="74"/>
-      <c r="E327" s="76"/>
-      <c r="F327" s="76"/>
-      <c r="G327" s="76"/>
-    </row>
-    <row r="328" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E328" s="1" t="s">
+    </row>
+    <row r="329" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E329" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="329" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E329" s="1" t="s">
+    <row r="332" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E332" s="56" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E332" s="56" t="s">
-        <v>433</v>
-      </c>
       <c r="F332" s="37"/>
     </row>
-    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E334" s="15"/>
       <c r="H334" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I334" s="38">
         <v>44048</v>
       </c>
     </row>
-    <row r="335" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B335" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H335" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H335" s="1" t="s">
+      <c r="I335" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="336" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H336" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I335" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="336" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H336" s="1" t="s">
+      <c r="I336" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H337" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I336" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H337" s="1" t="s">
+      <c r="I337" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="78" t="s">
         <v>438</v>
       </c>
-      <c r="I337" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="77" t="s">
+      <c r="B340" s="78"/>
+      <c r="C340" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="B340" s="77"/>
-      <c r="C340" s="72" t="s">
+      <c r="D340" s="78" t="s">
         <v>440</v>
       </c>
-      <c r="D340" s="77" t="s">
+      <c r="E340" s="78"/>
+      <c r="F340" s="73" t="s">
         <v>441</v>
       </c>
-      <c r="E340" s="77"/>
-      <c r="F340" s="72" t="s">
+      <c r="G340" s="78" t="s">
         <v>442</v>
       </c>
-      <c r="G340" s="77" t="s">
+      <c r="H340" s="78"/>
+      <c r="I340" s="78"/>
+      <c r="J340" s="73" t="s">
         <v>443</v>
       </c>
-      <c r="H340" s="77"/>
-      <c r="I340" s="77"/>
-      <c r="J340" s="72" t="s">
+      <c r="K340" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="K340" s="73" t="s">
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="57" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="57" t="s">
+      <c r="B341" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="B341" s="57" t="s">
+      <c r="C341" s="73"/>
+      <c r="D341" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="C341" s="72"/>
-      <c r="D341" s="57" t="s">
+      <c r="E341" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="E341" s="57" t="s">
+      <c r="F341" s="73"/>
+      <c r="G341" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="F341" s="72"/>
-      <c r="G341" s="57" t="s">
+      <c r="H341" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="H341" s="57" t="s">
+      <c r="I341" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="I341" s="57" t="s">
-        <v>452</v>
-      </c>
-      <c r="J341" s="72"/>
-      <c r="K341" s="73"/>
-    </row>
-    <row r="342" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J341" s="73"/>
+      <c r="K341" s="74"/>
+    </row>
+    <row r="342" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" s="58">
         <v>1</v>
       </c>
       <c r="B342" s="59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C342" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="D342" s="60" t="s">
         <v>453</v>
       </c>
-      <c r="D342" s="60" t="s">
+      <c r="E342" s="59" t="s">
         <v>454</v>
       </c>
-      <c r="E342" s="59" t="s">
+      <c r="F342" s="58" t="s">
         <v>455</v>
-      </c>
-      <c r="F342" s="58" t="s">
-        <v>456</v>
       </c>
       <c r="G342" s="16"/>
       <c r="H342" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I342" s="58">
         <v>1</v>
       </c>
       <c r="J342" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K342" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A343" s="58">
         <v>2</v>
       </c>
       <c r="B343" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D343" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="E343" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="E343" s="59" t="s">
+      <c r="F343" s="58" t="s">
         <v>460</v>
-      </c>
-      <c r="F343" s="58" t="s">
-        <v>461</v>
       </c>
       <c r="G343" s="16"/>
       <c r="H343" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I343" s="58">
         <v>1</v>
       </c>
       <c r="J343" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K343" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A344" s="58">
         <v>3</v>
       </c>
       <c r="B344" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C344" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D344" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="D344" s="59" t="s">
+      <c r="E344" s="59" t="s">
         <v>464</v>
       </c>
-      <c r="E344" s="59" t="s">
+      <c r="F344" s="58" t="s">
         <v>465</v>
-      </c>
-      <c r="F344" s="58" t="s">
-        <v>466</v>
       </c>
       <c r="G344" s="16"/>
       <c r="H344" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I344" s="58">
         <v>1</v>
       </c>
       <c r="J344" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K344" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A345" s="58">
         <v>4</v>
       </c>
       <c r="B345" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D345" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="E345" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="E345" s="59" t="s">
+      <c r="F345" s="58" t="s">
         <v>460</v>
-      </c>
-      <c r="F345" s="58" t="s">
-        <v>461</v>
       </c>
       <c r="G345" s="16"/>
       <c r="H345" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I345" s="58">
         <v>1</v>
       </c>
       <c r="J345" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K345" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A346" s="58">
         <v>5</v>
       </c>
       <c r="B346" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C346" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D346" s="59" t="s">
         <v>467</v>
       </c>
-      <c r="D346" s="59" t="s">
+      <c r="E346" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="E346" s="59" t="s">
-        <v>469</v>
-      </c>
       <c r="F346" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G346" s="16"/>
       <c r="H346" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I346" s="58">
         <v>1</v>
       </c>
       <c r="J346" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K346" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A347" s="58">
         <v>6</v>
       </c>
       <c r="B347" s="59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D347" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="E347" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="E347" s="59" t="s">
+      <c r="F347" s="58" t="s">
         <v>460</v>
-      </c>
-      <c r="F347" s="58" t="s">
-        <v>461</v>
       </c>
       <c r="G347" s="16"/>
       <c r="H347" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I347" s="58">
         <v>1</v>
       </c>
       <c r="J347" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K347" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A348" s="58">
         <v>7</v>
       </c>
       <c r="B348" s="59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D348" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="E348" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="E348" s="59" t="s">
+      <c r="F348" s="58" t="s">
         <v>460</v>
-      </c>
-      <c r="F348" s="58" t="s">
-        <v>461</v>
       </c>
       <c r="G348" s="16"/>
       <c r="H348" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I348" s="58">
         <v>1</v>
       </c>
       <c r="J348" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K348" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A349" s="58">
         <v>8</v>
       </c>
       <c r="B349" s="59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C349" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D349" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="D349" s="59" t="s">
+      <c r="E349" s="59" t="s">
         <v>472</v>
       </c>
-      <c r="E349" s="59" t="s">
-        <v>473</v>
-      </c>
       <c r="F349" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G349" s="16"/>
       <c r="H349" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I349" s="58">
         <v>50</v>
       </c>
       <c r="J349" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K349" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A350" s="58">
         <v>9</v>
       </c>
       <c r="B350" s="59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C350" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D350" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="D350" s="59" t="s">
+      <c r="E350" s="59" t="s">
         <v>475</v>
       </c>
-      <c r="E350" s="59" t="s">
-        <v>476</v>
-      </c>
       <c r="F350" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G350" s="16"/>
       <c r="H350" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I350" s="58">
         <v>50</v>
       </c>
       <c r="J350" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K350" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A351" s="58">
         <v>10</v>
       </c>
       <c r="B351" s="59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D351" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="E351" s="59" t="s">
         <v>477</v>
       </c>
-      <c r="E351" s="59" t="s">
-        <v>478</v>
-      </c>
       <c r="F351" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G351" s="16"/>
       <c r="H351" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I351" s="58">
         <v>200</v>
       </c>
       <c r="J351" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K351" s="61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E357" s="48" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B361" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="C361" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="D361" s="57" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B361" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="C361" s="57" t="s">
-        <v>447</v>
-      </c>
-      <c r="D361" s="57" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="362" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B362" s="58">
         <v>1</v>
       </c>
       <c r="C362" s="60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D362" s="62" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="363" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B363" s="58">
         <v>2</v>
       </c>
       <c r="C363" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D363" s="62" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="364" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B364" s="58">
         <v>3</v>
       </c>
       <c r="C364" s="60" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D364" s="62" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="365" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B365" s="58">
         <v>4</v>
       </c>
       <c r="C365" s="60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D365" s="62" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="366" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B366" s="58">
         <v>5</v>
       </c>
       <c r="C366" s="60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D366" s="62" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="367" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B367" s="58">
         <v>6</v>
       </c>
       <c r="C367" s="60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D367" s="62" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="368" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B368" s="58">
         <v>7</v>
       </c>
       <c r="C368" s="60" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D368" s="62" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="369" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B369" s="58">
         <v>8</v>
       </c>
       <c r="C369" s="60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D369" s="62" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="370" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B370" s="58">
         <v>9</v>
       </c>
       <c r="C370" s="60" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D370" s="62" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="371" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B371" s="58">
         <v>10</v>
       </c>
       <c r="C371" s="60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D371" s="62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
